--- a/KK.xlsx
+++ b/KK.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>veg</t>
   </si>
@@ -43,6 +43,27 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>dustbean bag/mat/hanger</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>macdonald</t>
+  </si>
+  <si>
+    <t>snaks</t>
+  </si>
+  <si>
+    <t>meal</t>
+  </si>
+  <si>
+    <t>roll</t>
   </si>
 </sst>
 </file>
@@ -141,8 +162,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B15" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A2:B15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B32" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A2:B32"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Amount" dataDxfId="2"/>
     <tableColumn id="2" name="Description" dataDxfId="1" totalsRowDxfId="0"/>
@@ -414,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J33"/>
+  <dimension ref="A2:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,103 +521,199 @@
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1">
+        <v>305</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="1">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1">
+        <v>162</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="1">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="1">
+        <v>120</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="1">
+        <v>110</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="1">
+        <v>88</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="1">
+        <v>62</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="1">
+        <v>128</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1">
+        <v>70</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="1">
+        <v>129</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="1">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="1">
+        <v>129</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="1">
+        <v>129</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="1">
+        <v>118</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="1">
+        <v>60</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="1">
+        <v>125</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="1">
+        <v>91</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="A32" s="1">
+        <v>64</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KK.xlsx
+++ b/KK.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sep-18" sheetId="2" r:id="rId1"/>
+    <sheet name="Oct-18" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>veg</t>
   </si>
@@ -64,13 +65,28 @@
   </si>
   <si>
     <t>roll</t>
+  </si>
+  <si>
+    <t>Chana,matar,dal</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>oil,namak</t>
+  </si>
+  <si>
+    <t>egg,haldi</t>
+  </si>
+  <si>
+    <t>chole bhature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,16 +94,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,20 +131,152 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -146,8 +314,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="5"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -162,11 +330,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B32" totalsRowShown="0" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A2:B32" totalsRowShown="0" dataDxfId="8">
   <autoFilter ref="A2:B32"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Amount" dataDxfId="2"/>
-    <tableColumn id="2" name="Description" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Amount" dataDxfId="7"/>
+    <tableColumn id="2" name="Description" dataDxfId="6" totalsRowDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:B14" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="4">
+  <autoFilter ref="A2:B14"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Amount" dataDxfId="3"/>
+    <tableColumn id="2" name="Description" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -437,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,4 +901,122 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>465</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>87</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>75</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>45</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>140</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>40</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>90</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>140</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/KK.xlsx
+++ b/KK.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sep-18" sheetId="2" r:id="rId1"/>
     <sheet name="Oct-18" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>veg</t>
   </si>
@@ -80,6 +81,27 @@
   </si>
   <si>
     <t>chole bhature</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>garbage bag</t>
+  </si>
+  <si>
+    <t>oil+salt+egg</t>
+  </si>
+  <si>
+    <t>Chole puri</t>
+  </si>
+  <si>
+    <t>chola bhautra</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>agreement</t>
   </si>
 </sst>
 </file>
@@ -144,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,53 +183,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -278,6 +261,48 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -341,11 +366,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:B14" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:B14" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A2:B14"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Amount" dataDxfId="3"/>
-    <tableColumn id="2" name="Description" dataDxfId="2"/>
+    <tableColumn id="1" name="Amount" dataDxfId="1"/>
+    <tableColumn id="2" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -614,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J34"/>
+  <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,6 +919,14 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2890</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -905,10 +938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B14"/>
+  <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,12 +1039,24 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="5">
+        <v>96</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1325</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1019,4 +1064,83 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>180</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1380</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KK.xlsx
+++ b/KK.xlsx
@@ -1071,7 +1071,7 @@
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>1380</v>
+        <v>1420</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>

--- a/KK.xlsx
+++ b/KK.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sep-18" sheetId="2" r:id="rId1"/>
     <sheet name="Oct-18" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Nov" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>veg</t>
   </si>
@@ -102,6 +102,27 @@
   </si>
   <si>
     <t>agreement</t>
+  </si>
+  <si>
+    <t>T shirt</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>Veg</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>littii</t>
+  </si>
+  <si>
+    <t>hw</t>
   </si>
 </sst>
 </file>
@@ -1068,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C9"/>
+  <dimension ref="B2:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,34 +1131,98 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>1420</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9">
+        <v>1420</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>70</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1260</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>850</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>11000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/KK.xlsx
+++ b/KK.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sep-18" sheetId="2" r:id="rId1"/>
     <sheet name="Oct-18" sheetId="3" r:id="rId2"/>
     <sheet name="Nov" sheetId="4" r:id="rId3"/>
+    <sheet name="Dec" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
   <si>
     <t>veg</t>
   </si>
@@ -113,9 +114,6 @@
     <t>Veg</t>
   </si>
   <si>
-    <t>cash</t>
-  </si>
-  <si>
     <t>food</t>
   </si>
   <si>
@@ -123,6 +121,30 @@
   </si>
   <si>
     <t>hw</t>
+  </si>
+  <si>
+    <t>cucumber</t>
+  </si>
+  <si>
+    <t>spoon</t>
+  </si>
+  <si>
+    <t>gobi</t>
+  </si>
+  <si>
+    <t>daal+dhaniya powder</t>
+  </si>
+  <si>
+    <t>vrg</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>curd</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
 </sst>
 </file>
@@ -1089,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C17"/>
+  <dimension ref="B2:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1196,7 @@
         <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
@@ -1203,26 +1225,217 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>11000</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>105</v>
+        <v>1300</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>85</v>
       </c>
-      <c r="C17" t="s">
-        <v>32</v>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>6465</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>1890</v>
       </c>
     </row>
   </sheetData>
